--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4_极光组.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>紧急</t>
   </si>
   <si>
     <t>Bugfixs</t>
@@ -161,23 +158,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>芝麻信用定时器逻辑修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>定时器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App集中式子账号查询房源</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -194,6 +175,22 @@
   </si>
   <si>
     <t>纪维玉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财账单支付完后同步导致多笔重复流水记录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,9 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1004,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,41 +1097,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="32">
         <v>42674</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="32">
         <v>42674</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O2" s="50"/>
       <c r="P2" s="32"/>
@@ -1153,41 +1147,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="32">
         <v>42674</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="32">
         <v>42674</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O3" s="50"/>
       <c r="P3" s="32"/>
@@ -5190,28 +5184,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6250,73 +6244,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="A1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>20</v>

--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4_极光组.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4_极光组.xlsx
@@ -12,7 +12,7 @@
     <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.4新特性|Fix Bug'!$A$1:$U$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.4新特性|Fix Bug'!$A$1:$U$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -158,14 +158,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>定时器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>苏玉军</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -182,15 +174,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>紧急</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>紧急</t>
+    <t>定时器,租客App</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,9 +588,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1100,16 +1085,16 @@
         <v>44</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>22</v>
@@ -1125,13 +1110,13 @@
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O2" s="50"/>
       <c r="P2" s="32"/>
@@ -1143,56 +1128,30 @@
       <c r="V2" s="47"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="32">
-        <v>42674</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="32">
-        <v>42674</v>
-      </c>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="31"/>
-      <c r="L3" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="32"/>
-      <c r="Q3" s="50"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
       <c r="T3" s="45"/>
       <c r="U3" s="48"/>
       <c r="V3" s="47"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1204,7 +1163,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="31"/>
-      <c r="L4" s="50"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
       <c r="O4" s="42"/>
@@ -1216,7 +1175,7 @@
       <c r="U4" s="48"/>
       <c r="V4" s="47"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1237,10 +1196,10 @@
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
       <c r="T5" s="45"/>
-      <c r="U5" s="48"/>
+      <c r="U5" s="46"/>
       <c r="V5" s="47"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -1261,10 +1220,10 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
       <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
+      <c r="U6" s="48"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1285,7 +1244,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
       <c r="T7" s="45"/>
-      <c r="U7" s="48"/>
+      <c r="U7" s="46"/>
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1340,22 +1299,22 @@
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="32"/>
       <c r="K10" s="31"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="42"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
       <c r="T10" s="45"/>
       <c r="U10" s="46"/>
       <c r="V10" s="47"/>
@@ -1364,16 +1323,16 @@
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="32"/>
       <c r="K11" s="31"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="32"/>
@@ -1381,7 +1340,7 @@
       <c r="R11" s="49"/>
       <c r="S11" s="49"/>
       <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
+      <c r="U11" s="42"/>
       <c r="V11" s="47"/>
     </row>
     <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1402,19 +1361,19 @@
       <c r="O12" s="42"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="42"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
       <c r="T12" s="45"/>
-      <c r="U12" s="42"/>
+      <c r="U12" s="46"/>
       <c r="V12" s="47"/>
     </row>
     <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="31"/>
@@ -1422,7 +1381,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="42"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="42"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="42"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="42"/>
@@ -1441,7 +1400,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="31"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="31"/>
       <c r="L14" s="42"/>
@@ -1513,7 +1472,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="32"/>
       <c r="K17" s="31"/>
       <c r="L17" s="42"/>
@@ -1561,7 +1520,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="31"/>
       <c r="L19" s="42"/>
@@ -1572,7 +1531,7 @@
       <c r="Q19" s="42"/>
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
-      <c r="T19" s="45"/>
+      <c r="T19" s="39"/>
       <c r="U19" s="46"/>
       <c r="V19" s="47"/>
     </row>
@@ -1601,27 +1560,27 @@
       <c r="V20" s="47"/>
     </row>
     <row r="21" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="42"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37"/>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
       <c r="T21" s="39"/>
-      <c r="U21" s="46"/>
+      <c r="U21" s="37"/>
       <c r="V21" s="47"/>
     </row>
     <row r="22" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1648,29 +1607,28 @@
       <c r="U22" s="37"/>
       <c r="V22" s="47"/>
     </row>
-    <row r="23" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="36"/>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="37"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="47"/>
+      <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
@@ -2921,7 +2879,7 @@
       <c r="D78" s="40"/>
       <c r="E78" s="39"/>
       <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="41"/>
       <c r="I78" s="39"/>
       <c r="J78" s="41"/>
@@ -3052,13 +3010,13 @@
       <c r="T83" s="39"/>
       <c r="U83" s="40"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
       <c r="D84" s="40"/>
       <c r="E84" s="39"/>
-      <c r="F84" s="31"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="41"/>
       <c r="I84" s="39"/>
@@ -4450,9 +4408,6 @@
       <c r="O144" s="39"/>
       <c r="P144" s="41"/>
       <c r="Q144" s="40"/>
-      <c r="R144" s="39"/>
-      <c r="S144" s="39"/>
-      <c r="T144" s="39"/>
       <c r="U144" s="40"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.15">
@@ -5135,28 +5090,8 @@
       <c r="Q178" s="40"/>
       <c r="U178" s="40"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="39"/>
-      <c r="G179" s="39"/>
-      <c r="H179" s="41"/>
-      <c r="I179" s="39"/>
-      <c r="J179" s="41"/>
-      <c r="K179" s="44"/>
-      <c r="L179" s="39"/>
-      <c r="M179" s="39"/>
-      <c r="N179" s="39"/>
-      <c r="O179" s="39"/>
-      <c r="P179" s="41"/>
-      <c r="Q179" s="40"/>
-      <c r="U179" s="40"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U18"/>
+  <autoFilter ref="A1:U17"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -6244,36 +6179,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4_极光组.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4_极光组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>定时器,租客App</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1118,9 +1126,15 @@
       <c r="N2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="50"/>
+      <c r="O2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="32">
+        <v>42674</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>52</v>
+      </c>
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
       <c r="T2" s="45"/>
